--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E786B-F921-D94D-9028-A4C8C4D3CC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918D5F2-614B-6E4F-B42C-D94BFAC70031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="3300" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="4260" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="273">
   <si>
     <t>title</t>
   </si>
@@ -292,9 +292,6 @@
     <t>搬家公司</t>
   </si>
   <si>
-    <t>fig/AiCity-918-</t>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -872,13 +869,592 @@
       </rPr>
       <t>號</t>
     </r>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>台新銀行 新莊副都心分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：242新北市新莊區中原路150號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：02-8521-1388 #100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間：09:00 - 15:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-台新.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校才藝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行證劵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taishinbank.com.tw/TSB/personal/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國信託商業銀行林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地址：桃園縣龜山鄉復興一路233號 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-396-2777</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ctbcbank.com/twrbo/zh_tw/dep_index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-中國信託.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">元大商業銀行林口分行  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地址：桃園縣龜山鄉文化三路118號 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-328-8999</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yuantabank.com.tw/bank/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AICITY-918-元大.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元大證劵長庚分公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：33380桃園市龜山區文化二路38之6號二樓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-397-8787</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間: 08:30 - 16:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yuanta.com.tw/eyuanta/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-元大證劵.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">遠東國際商業銀行林口分行 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地址：桃園縣龜山鄉復興一路227號 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-397-3888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.feib.com.tw/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-遠東銀行.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">渣打國際商業銀行公西分行 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區復興一路237號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-397-2288</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://service.standardchartered.com.tw/ssl/campaign/credit-cards/signature-card.asp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-渣打銀行.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉山銀行 林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區復興一路230號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-396-1313</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.esunbank.com.tw/bank/personal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-玉山銀行.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>國泰世華銀行林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區文化三路319號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-327-1689</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cathaybk.com.tw/cathaybk/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-國泰世華.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽信銀行林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區文化三路331號1~2樓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-327-3559</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sunnybank.com.tw/net/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-陽信銀行.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺灣銀行林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區復興一路368號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-327-7299</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bot.com.tw/Pages/default.aspx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-台灣銀行.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一銀行林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區文化二路76號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-318-6611</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.firstbank.com.tw/sites/fbweb/Home</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-第一銀行.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作金庫銀行 林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區文化二路49號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-318-3880</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tcb-bank.com.tw/Pages/index.aspx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-合作金庫.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>華南銀行林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區復興一路300號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話： 03-318-3456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hncb.com.tw/wps/portal/HNCB/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-華南銀行.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰化銀行東林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區復興一路235號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-397-5555</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bankchb.com/frontend/index.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-彰化銀行.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣土地銀行林口分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區文化二路109號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-318-2128</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.landbank.com.tw/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-土地銀行.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>大崗國民中學</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林口國民中學</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址；333桃園市龜山區文化二路168號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址；244新北市林口區民治路25號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lkjh.ntpc.edu.tw/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dgjh.tyc.edu.tw/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-328-0888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：02-2601-1014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-大崗國中.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-林口國中.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂善國民小學</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：33371桃園市龜山區樂安街71號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www2.leses.tyc.edu.tw/school/web/index.php</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-3281002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-樂善國小.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cgps.tyc.edu.tw/index1.htm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>長庚國民小學</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-318-2643</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區長庚里425號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-長庚國小.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文華國民小學</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區文化七路116號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sun.sshes.tyc.edu.tw/xoops/index.php?color=blue#k</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-327-1146</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-文華國小.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文德非營利幼兒園</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.safe.org.tw/about/family/kindergarten/14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：桃園市龜山區文德二路88號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-397-9511, 397-9146</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-文德幼兒園.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃亮語文文理補習班</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區文德路32號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-327-0006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佑林兒童課後照顧服務中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區文德二路100號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話： 03-327-3488</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bb.bbbox.net/mathleader?fbclid=IwAR0DGMtvhOOShOgZqybkTb1IdfxUXRie0NUXAeYljpPiSsAr77GONn85NaM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-黃亮補習班.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-佑林課後班.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林威治英語</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：桃園市龜山區長慶三街36號1樓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-397-2622</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠揚八度音樂中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：桃園市龜山區長慶三街30號1樓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：0937-081-121</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/102501968352582/posts/opening-soon-/120037916598987/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-悠揚八度.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -903,6 +1479,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -921,16 +1504,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1230,13 +1816,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,7 +1838,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1278,7 +1864,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1290,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1304,7 +1890,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1316,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1330,7 +1916,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1342,7 +1928,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1356,7 +1942,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1368,7 +1954,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -1382,7 +1968,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1394,7 +1980,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1408,7 +1994,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1420,7 +2006,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -1434,7 +2020,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -1446,7 +2032,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -1460,19 +2046,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
@@ -1486,7 +2072,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1498,7 +2084,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1512,7 +2098,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -1524,7 +2110,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
@@ -1538,7 +2124,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -1550,7 +2136,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
@@ -1564,7 +2150,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -1576,7 +2162,7 @@
         <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -1590,7 +2176,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -1599,7 +2185,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -1613,7 +2199,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -1625,7 +2211,7 @@
         <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
@@ -1639,7 +2225,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>79</v>
@@ -1651,7 +2237,7 @@
         <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
         <v>82</v>
@@ -1665,7 +2251,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -1677,7 +2263,7 @@
         <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
@@ -1690,17 +2276,643 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>140</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>148</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" t="s">
+        <v>264</v>
+      </c>
+      <c r="H40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" t="s">
+        <v>267</v>
+      </c>
+      <c r="H41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H42" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1" xr:uid="{2FAE7874-4DCD-0E4C-8650-30542C791110}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{3EA3B75E-44C6-9F49-B840-98E6C3472D4D}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{412DF0E2-0A38-F54B-A3F3-380A588AAD7D}"/>
+    <hyperlink ref="G21" r:id="rId4" xr:uid="{F52A8531-3B92-7E44-9925-CA8A4CB3BE71}"/>
+    <hyperlink ref="G22" r:id="rId5" xr:uid="{6533AFCC-6740-1B4F-A48B-108A0D5A4357}"/>
+    <hyperlink ref="G23" r:id="rId6" xr:uid="{B3C15CF7-63A8-8843-A5AB-1F02D9C470FC}"/>
+    <hyperlink ref="G24" r:id="rId7" xr:uid="{029A5B35-3CB3-394C-B703-97A4C98E4688}"/>
+    <hyperlink ref="G25" r:id="rId8" xr:uid="{8A33CE13-8235-0145-B9C8-9F53E31B8B8F}"/>
+    <hyperlink ref="G26" r:id="rId9" xr:uid="{76444750-0177-0141-AA85-9D728BAD8A34}"/>
+    <hyperlink ref="G27" r:id="rId10" xr:uid="{8A025C20-173E-564D-A237-597126DF1F1B}"/>
+    <hyperlink ref="G28" r:id="rId11" xr:uid="{612DF3E6-5B39-234E-9D67-72C0586EF110}"/>
+    <hyperlink ref="G29" r:id="rId12" xr:uid="{95D4CD54-A3BA-E140-B7B8-7262A1664F94}"/>
+    <hyperlink ref="G30" r:id="rId13" xr:uid="{1256F3EF-10EA-624D-9455-5B9481239CCF}"/>
+    <hyperlink ref="G31" r:id="rId14" xr:uid="{EF155354-A9EC-2347-BD27-5496F93A7866}"/>
+    <hyperlink ref="G32" r:id="rId15" xr:uid="{3DBA1F2A-F4AC-7D47-9004-BD10C937C173}"/>
+    <hyperlink ref="G34" r:id="rId16" xr:uid="{E611234F-AE20-C648-9E8A-2A01502FA5A2}"/>
+    <hyperlink ref="G33" r:id="rId17" xr:uid="{404CC6F9-59A5-7949-9F34-AFB2DB4A4370}"/>
+    <hyperlink ref="G35" r:id="rId18" xr:uid="{9321B23E-F57E-0848-A143-C2B37755A8EF}"/>
+    <hyperlink ref="G36" r:id="rId19" xr:uid="{84AF39A7-7D7B-574B-B001-08F2F4BFEBF9}"/>
+    <hyperlink ref="G37" r:id="rId20" location="k" xr:uid="{2EE90522-950D-7849-879D-ECAA987D44CD}"/>
+    <hyperlink ref="G38" r:id="rId21" xr:uid="{5C1A221B-672D-F84A-8EAF-2EF51288D144}"/>
+    <hyperlink ref="G39" r:id="rId22" xr:uid="{1F3FDA94-F189-1248-B020-079A6BC556B3}"/>
+    <hyperlink ref="G42" r:id="rId23" xr:uid="{4B923539-D457-704D-9ECA-D0F3BEAE6AE2}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918D5F2-614B-6E4F-B42C-D94BFAC70031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD57B9-9524-C147-98CE-1B648526EF49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="4260" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="11380" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -1294,10 +1294,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-918-大崗國中.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/AiCity-918-林口國中.jpeg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1447,6 +1443,10 @@
   </si>
   <si>
     <t>fig/AiCity-918-悠揚八度.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-大崗國中.jpeg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD47"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2679,7 @@
         <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>231</v>
@@ -2702,7 +2702,7 @@
         <v>233</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>230</v>
@@ -2716,19 +2716,19 @@
         <v>218</v>
       </c>
       <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" t="s">
         <v>236</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D35" t="s">
-        <v>239</v>
-      </c>
-      <c r="F35" t="s">
-        <v>240</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="H35" t="s">
         <v>141</v>
@@ -2739,19 +2739,19 @@
         <v>219</v>
       </c>
       <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" t="s">
         <v>242</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>244</v>
       </c>
-      <c r="D36" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" t="s">
-        <v>245</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
         <v>141</v>
@@ -2762,19 +2762,19 @@
         <v>220</v>
       </c>
       <c r="B37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" t="s">
         <v>246</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D37" t="s">
-        <v>249</v>
-      </c>
-      <c r="F37" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="H37" t="s">
         <v>141</v>
@@ -2785,19 +2785,19 @@
         <v>221</v>
       </c>
       <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C38" t="s">
-        <v>253</v>
-      </c>
-      <c r="D38" t="s">
-        <v>254</v>
-      </c>
-      <c r="F38" t="s">
-        <v>255</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="H38" t="s">
         <v>141</v>
@@ -2808,19 +2808,19 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
         <v>256</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>257</v>
       </c>
-      <c r="D39" t="s">
-        <v>258</v>
-      </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H39" t="s">
         <v>141</v>
@@ -2831,16 +2831,16 @@
         <v>223</v>
       </c>
       <c r="B40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" t="s">
         <v>259</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>260</v>
       </c>
-      <c r="D40" t="s">
-        <v>261</v>
-      </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
         <v>141</v>
@@ -2851,13 +2851,13 @@
         <v>224</v>
       </c>
       <c r="B41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" t="s">
         <v>265</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>266</v>
-      </c>
-      <c r="D41" t="s">
-        <v>267</v>
       </c>
       <c r="H41" t="s">
         <v>141</v>
@@ -2868,19 +2868,19 @@
         <v>225</v>
       </c>
       <c r="B42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
         <v>268</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>269</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="F42" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="H42" t="s">
         <v>141</v>

--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2940304-DFC5-BC41-B47B-4F56C0B84977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA36793E-747F-554F-BCC8-3216D1698E67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="4140" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17440" yWindow="3420" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="293">
   <si>
     <t>title</t>
   </si>
@@ -265,9 +265,6 @@
     <t>電話：0978-793-288</t>
   </si>
   <si>
-    <t>fig/AiCity-918-toyota.png</t>
-  </si>
-  <si>
     <t>https://www.toyota.com.tw/index.aspx</t>
   </si>
   <si>
@@ -1500,6 +1497,37 @@
   </si>
   <si>
     <t>fig/AiCity-918-Mail1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-Toyota.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>立欣汽車保養代檢廠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：333桃園市龜山區復興三路68號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間：08:00 - 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-397-1710</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/69oil/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-立欣汽車.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1869,13 +1897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1891,7 +1919,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1917,7 +1945,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1929,7 +1957,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1943,7 +1971,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1955,7 +1983,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1969,7 +1997,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1981,7 +2009,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1995,7 +2023,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -2007,7 +2035,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -2021,7 +2049,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -2033,7 +2061,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -2047,7 +2075,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -2059,7 +2087,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2073,19 +2101,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -2099,25 +2127,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="F9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -2125,25 +2153,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="D10" t="s">
-        <v>279</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -2151,19 +2179,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
@@ -2177,7 +2205,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -2189,7 +2217,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
@@ -2203,7 +2231,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -2215,7 +2243,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -2229,7 +2257,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -2241,7 +2269,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
         <v>61</v>
@@ -2255,7 +2283,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -2267,7 +2295,7 @@
         <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -2281,7 +2309,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -2290,7 +2318,7 @@
         <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
         <v>70</v>
@@ -2304,7 +2332,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -2316,7 +2344,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
@@ -2330,7 +2358,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -2342,13 +2370,13 @@
         <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" t="s">
         <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>77</v>
@@ -2356,639 +2384,665 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>86</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>87</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
         <v>135</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
         <v>138</v>
       </c>
-      <c r="F20" t="s">
-        <v>139</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
         <v>143</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>144</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
         <v>148</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>149</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
         <v>153</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>154</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>160</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
         <v>164</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>165</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
         <v>169</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>170</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
         <v>174</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>175</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s">
         <v>179</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>180</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
         <v>184</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>185</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" t="s">
         <v>189</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>190</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" t="s">
         <v>194</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>195</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" t="s">
         <v>200</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>201</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
         <v>205</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>206</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
         <v>210</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>211</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" t="s">
-        <v>214</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="H34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D36" t="s">
-        <v>232</v>
-      </c>
-      <c r="F36" t="s">
-        <v>233</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" t="s">
         <v>234</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" t="s">
         <v>240</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>242</v>
       </c>
-      <c r="D38" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" t="s">
-        <v>243</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" t="s">
         <v>244</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D39" t="s">
-        <v>247</v>
-      </c>
-      <c r="F39" t="s">
-        <v>248</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C40" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" t="s">
-        <v>252</v>
-      </c>
-      <c r="F40" t="s">
-        <v>253</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="s">
         <v>254</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>255</v>
       </c>
-      <c r="D41" t="s">
-        <v>256</v>
-      </c>
       <c r="F41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" t="s">
         <v>257</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>258</v>
       </c>
-      <c r="D42" t="s">
-        <v>259</v>
-      </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" t="s">
         <v>263</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>264</v>
       </c>
-      <c r="D43" t="s">
-        <v>265</v>
-      </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" t="s">
         <v>266</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>267</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>269</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F44" t="s">
-        <v>270</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3019,6 +3073,7 @@
     <hyperlink ref="G44" r:id="rId23" xr:uid="{4B923539-D457-704D-9ECA-D0F3BEAE6AE2}"/>
     <hyperlink ref="G9" r:id="rId24" xr:uid="{7D5E435A-72DB-234A-A700-57D7FD7C5847}"/>
     <hyperlink ref="G10" r:id="rId25" xr:uid="{C9D2E3E5-1140-AA43-9CE0-6894817238EE}"/>
+    <hyperlink ref="G45" r:id="rId26" xr:uid="{70F642AB-8E61-6946-8CF7-28E253224CC3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA36793E-747F-554F-BCC8-3216D1698E67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E83957-78AB-6444-86EA-4E0863F1FAC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17440" yWindow="3420" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="3420" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-918-立欣汽車.jpg</t>
+    <t>fig/AiCity-918-立欣汽車.jpeg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1903,7 +1903,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C568FD-E544-2F4E-A9E5-CEDF24D63F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D52DEF-16FF-E645-8EFF-BC3891B587D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8560" yWindow="3420" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,10 +1902,10 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2334,25 +2334,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
+        <v>290</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="H17" t="s">
         <v>75</v>
@@ -2360,25 +2360,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
         <v>75</v>
@@ -2386,77 +2386,77 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>139</v>
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
         <v>138</v>
@@ -2464,25 +2464,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
@@ -2490,25 +2490,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
         <v>138</v>
@@ -2516,25 +2516,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
         <v>138</v>
@@ -2542,25 +2542,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H25" t="s">
         <v>138</v>
@@ -2568,25 +2568,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H26" t="s">
         <v>138</v>
@@ -2594,25 +2594,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
         <v>138</v>
@@ -2620,25 +2620,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
         <v>138</v>
@@ -2646,25 +2646,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
         <v>138</v>
@@ -2672,25 +2672,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H30" t="s">
         <v>138</v>
@@ -2698,25 +2698,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
         <v>138</v>
@@ -2724,25 +2724,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H32" t="s">
         <v>138</v>
@@ -2750,25 +2750,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H33" t="s">
         <v>138</v>
@@ -2776,25 +2776,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H34" t="s">
         <v>138</v>
@@ -2802,45 +2802,48 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>209</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H36" t="s">
         <v>137</v>
@@ -2848,22 +2851,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H37" t="s">
         <v>137</v>
@@ -2871,22 +2874,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H38" t="s">
         <v>137</v>
@@ -2894,22 +2897,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H39" t="s">
         <v>137</v>
@@ -2917,22 +2920,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F40" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H40" t="s">
         <v>137</v>
@@ -2940,22 +2943,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
         <v>137</v>
@@ -2963,19 +2966,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="H42" t="s">
         <v>137</v>
@@ -2983,16 +2989,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>262</v>
+        <v>256</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
       </c>
       <c r="H43" t="s">
         <v>137</v>
@@ -3000,22 +3009,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D44" t="s">
-        <v>265</v>
-      </c>
-      <c r="F44" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H44" t="s">
         <v>137</v>
@@ -3023,59 +3026,56 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D45" t="s">
-        <v>288</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="F45" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{2FAE7874-4DCD-0E4C-8650-30542C791110}"/>
-    <hyperlink ref="G21" r:id="rId2" xr:uid="{3EA3B75E-44C6-9F49-B840-98E6C3472D4D}"/>
-    <hyperlink ref="G22" r:id="rId3" xr:uid="{412DF0E2-0A38-F54B-A3F3-380A588AAD7D}"/>
-    <hyperlink ref="G23" r:id="rId4" xr:uid="{F52A8531-3B92-7E44-9925-CA8A4CB3BE71}"/>
-    <hyperlink ref="G24" r:id="rId5" xr:uid="{6533AFCC-6740-1B4F-A48B-108A0D5A4357}"/>
-    <hyperlink ref="G25" r:id="rId6" xr:uid="{B3C15CF7-63A8-8843-A5AB-1F02D9C470FC}"/>
-    <hyperlink ref="G26" r:id="rId7" xr:uid="{029A5B35-3CB3-394C-B703-97A4C98E4688}"/>
-    <hyperlink ref="G27" r:id="rId8" xr:uid="{8A33CE13-8235-0145-B9C8-9F53E31B8B8F}"/>
-    <hyperlink ref="G28" r:id="rId9" xr:uid="{76444750-0177-0141-AA85-9D728BAD8A34}"/>
-    <hyperlink ref="G29" r:id="rId10" xr:uid="{8A025C20-173E-564D-A237-597126DF1F1B}"/>
-    <hyperlink ref="G30" r:id="rId11" xr:uid="{612DF3E6-5B39-234E-9D67-72C0586EF110}"/>
-    <hyperlink ref="G31" r:id="rId12" xr:uid="{95D4CD54-A3BA-E140-B7B8-7262A1664F94}"/>
-    <hyperlink ref="G32" r:id="rId13" xr:uid="{1256F3EF-10EA-624D-9455-5B9481239CCF}"/>
-    <hyperlink ref="G33" r:id="rId14" xr:uid="{EF155354-A9EC-2347-BD27-5496F93A7866}"/>
-    <hyperlink ref="G34" r:id="rId15" xr:uid="{3DBA1F2A-F4AC-7D47-9004-BD10C937C173}"/>
-    <hyperlink ref="G36" r:id="rId16" xr:uid="{E611234F-AE20-C648-9E8A-2A01502FA5A2}"/>
-    <hyperlink ref="G35" r:id="rId17" xr:uid="{404CC6F9-59A5-7949-9F34-AFB2DB4A4370}"/>
-    <hyperlink ref="G37" r:id="rId18" xr:uid="{9321B23E-F57E-0848-A143-C2B37755A8EF}"/>
-    <hyperlink ref="G38" r:id="rId19" xr:uid="{84AF39A7-7D7B-574B-B001-08F2F4BFEBF9}"/>
-    <hyperlink ref="G39" r:id="rId20" location="k" xr:uid="{2EE90522-950D-7849-879D-ECAA987D44CD}"/>
-    <hyperlink ref="G40" r:id="rId21" xr:uid="{5C1A221B-672D-F84A-8EAF-2EF51288D144}"/>
-    <hyperlink ref="G41" r:id="rId22" xr:uid="{1F3FDA94-F189-1248-B020-079A6BC556B3}"/>
-    <hyperlink ref="G44" r:id="rId23" xr:uid="{4B923539-D457-704D-9ECA-D0F3BEAE6AE2}"/>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{2FAE7874-4DCD-0E4C-8650-30542C791110}"/>
+    <hyperlink ref="G22" r:id="rId2" xr:uid="{3EA3B75E-44C6-9F49-B840-98E6C3472D4D}"/>
+    <hyperlink ref="G23" r:id="rId3" xr:uid="{412DF0E2-0A38-F54B-A3F3-380A588AAD7D}"/>
+    <hyperlink ref="G24" r:id="rId4" xr:uid="{F52A8531-3B92-7E44-9925-CA8A4CB3BE71}"/>
+    <hyperlink ref="G25" r:id="rId5" xr:uid="{6533AFCC-6740-1B4F-A48B-108A0D5A4357}"/>
+    <hyperlink ref="G26" r:id="rId6" xr:uid="{B3C15CF7-63A8-8843-A5AB-1F02D9C470FC}"/>
+    <hyperlink ref="G27" r:id="rId7" xr:uid="{029A5B35-3CB3-394C-B703-97A4C98E4688}"/>
+    <hyperlink ref="G28" r:id="rId8" xr:uid="{8A33CE13-8235-0145-B9C8-9F53E31B8B8F}"/>
+    <hyperlink ref="G29" r:id="rId9" xr:uid="{76444750-0177-0141-AA85-9D728BAD8A34}"/>
+    <hyperlink ref="G30" r:id="rId10" xr:uid="{8A025C20-173E-564D-A237-597126DF1F1B}"/>
+    <hyperlink ref="G31" r:id="rId11" xr:uid="{612DF3E6-5B39-234E-9D67-72C0586EF110}"/>
+    <hyperlink ref="G32" r:id="rId12" xr:uid="{95D4CD54-A3BA-E140-B7B8-7262A1664F94}"/>
+    <hyperlink ref="G33" r:id="rId13" xr:uid="{1256F3EF-10EA-624D-9455-5B9481239CCF}"/>
+    <hyperlink ref="G34" r:id="rId14" xr:uid="{EF155354-A9EC-2347-BD27-5496F93A7866}"/>
+    <hyperlink ref="G35" r:id="rId15" xr:uid="{3DBA1F2A-F4AC-7D47-9004-BD10C937C173}"/>
+    <hyperlink ref="G37" r:id="rId16" xr:uid="{E611234F-AE20-C648-9E8A-2A01502FA5A2}"/>
+    <hyperlink ref="G36" r:id="rId17" xr:uid="{404CC6F9-59A5-7949-9F34-AFB2DB4A4370}"/>
+    <hyperlink ref="G38" r:id="rId18" xr:uid="{9321B23E-F57E-0848-A143-C2B37755A8EF}"/>
+    <hyperlink ref="G39" r:id="rId19" xr:uid="{84AF39A7-7D7B-574B-B001-08F2F4BFEBF9}"/>
+    <hyperlink ref="G40" r:id="rId20" location="k" xr:uid="{2EE90522-950D-7849-879D-ECAA987D44CD}"/>
+    <hyperlink ref="G41" r:id="rId21" xr:uid="{5C1A221B-672D-F84A-8EAF-2EF51288D144}"/>
+    <hyperlink ref="G42" r:id="rId22" xr:uid="{1F3FDA94-F189-1248-B020-079A6BC556B3}"/>
+    <hyperlink ref="G45" r:id="rId23" xr:uid="{4B923539-D457-704D-9ECA-D0F3BEAE6AE2}"/>
     <hyperlink ref="G9" r:id="rId24" xr:uid="{7D5E435A-72DB-234A-A700-57D7FD7C5847}"/>
     <hyperlink ref="G10" r:id="rId25" xr:uid="{C9D2E3E5-1140-AA43-9CE0-6894817238EE}"/>
-    <hyperlink ref="G45" r:id="rId26" xr:uid="{70F642AB-8E61-6946-8CF7-28E253224CC3}"/>
+    <hyperlink ref="G17" r:id="rId26" xr:uid="{CEF9696E-76E8-8D46-B734-94013C579713}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D52DEF-16FF-E645-8EFF-BC3891B587D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EED768-0AC1-8542-B1AA-DE2FD981010F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="3420" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8540" yWindow="3400" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -1521,15 +1521,36 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-918-立欣汽車.jpeg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>原總汽車有限公司：汽車驗車, 汽車保養與維修</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fig/AiCity-918-原總汽車.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-918-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>立欣汽車</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.jpeg</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1537,7 +1558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1568,6 +1589,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1902,10 +1930,10 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46:XFD46"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2349,7 +2377,7 @@
         <v>287</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>289</v>
@@ -2363,7 +2391,7 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -2375,7 +2403,7 @@
         <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>

--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EED768-0AC1-8542-B1AA-DE2FD981010F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16FCFBA-ACE5-8740-AEBD-06B0A765A59E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="3400" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8420" yWindow="1460" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="298">
   <si>
     <t>title</t>
   </si>
@@ -1551,6 +1551,54 @@
       </rPr>
       <t>.jpeg</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆豐銀行桃興分行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地址：333桃園市桃園區復興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話：03-332-7126</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.megabank.com.tw/personal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-兆豐銀行.jpg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1558,7 +1606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1597,6 +1645,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1619,11 +1674,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1927,13 +1983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2859,22 +2915,25 @@
         <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" t="s">
-        <v>224</v>
+        <v>293</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>295</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="H36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2882,19 +2941,19 @@
         <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H37" t="s">
         <v>137</v>
@@ -2905,19 +2964,19 @@
         <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F38" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H38" t="s">
         <v>137</v>
@@ -2928,19 +2987,19 @@
         <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H39" t="s">
         <v>137</v>
@@ -2951,19 +3010,19 @@
         <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H40" t="s">
         <v>137</v>
@@ -2974,19 +3033,19 @@
         <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H41" t="s">
         <v>137</v>
@@ -2997,19 +3056,19 @@
         <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H42" t="s">
         <v>137</v>
@@ -3020,16 +3079,19 @@
         <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="H43" t="s">
         <v>137</v>
@@ -3040,13 +3102,16 @@
         <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>256</v>
+      </c>
+      <c r="F44" t="s">
+        <v>259</v>
       </c>
       <c r="H44" t="s">
         <v>137</v>
@@ -3057,21 +3122,38 @@
         <v>221</v>
       </c>
       <c r="B45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" t="s">
         <v>263</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>264</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>265</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>267</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3093,17 +3175,18 @@
     <hyperlink ref="G33" r:id="rId13" xr:uid="{1256F3EF-10EA-624D-9455-5B9481239CCF}"/>
     <hyperlink ref="G34" r:id="rId14" xr:uid="{EF155354-A9EC-2347-BD27-5496F93A7866}"/>
     <hyperlink ref="G35" r:id="rId15" xr:uid="{3DBA1F2A-F4AC-7D47-9004-BD10C937C173}"/>
-    <hyperlink ref="G37" r:id="rId16" xr:uid="{E611234F-AE20-C648-9E8A-2A01502FA5A2}"/>
-    <hyperlink ref="G36" r:id="rId17" xr:uid="{404CC6F9-59A5-7949-9F34-AFB2DB4A4370}"/>
-    <hyperlink ref="G38" r:id="rId18" xr:uid="{9321B23E-F57E-0848-A143-C2B37755A8EF}"/>
-    <hyperlink ref="G39" r:id="rId19" xr:uid="{84AF39A7-7D7B-574B-B001-08F2F4BFEBF9}"/>
-    <hyperlink ref="G40" r:id="rId20" location="k" xr:uid="{2EE90522-950D-7849-879D-ECAA987D44CD}"/>
-    <hyperlink ref="G41" r:id="rId21" xr:uid="{5C1A221B-672D-F84A-8EAF-2EF51288D144}"/>
-    <hyperlink ref="G42" r:id="rId22" xr:uid="{1F3FDA94-F189-1248-B020-079A6BC556B3}"/>
-    <hyperlink ref="G45" r:id="rId23" xr:uid="{4B923539-D457-704D-9ECA-D0F3BEAE6AE2}"/>
+    <hyperlink ref="G38" r:id="rId16" xr:uid="{E611234F-AE20-C648-9E8A-2A01502FA5A2}"/>
+    <hyperlink ref="G37" r:id="rId17" xr:uid="{404CC6F9-59A5-7949-9F34-AFB2DB4A4370}"/>
+    <hyperlink ref="G39" r:id="rId18" xr:uid="{9321B23E-F57E-0848-A143-C2B37755A8EF}"/>
+    <hyperlink ref="G40" r:id="rId19" xr:uid="{84AF39A7-7D7B-574B-B001-08F2F4BFEBF9}"/>
+    <hyperlink ref="G41" r:id="rId20" location="k" xr:uid="{2EE90522-950D-7849-879D-ECAA987D44CD}"/>
+    <hyperlink ref="G42" r:id="rId21" xr:uid="{5C1A221B-672D-F84A-8EAF-2EF51288D144}"/>
+    <hyperlink ref="G43" r:id="rId22" xr:uid="{1F3FDA94-F189-1248-B020-079A6BC556B3}"/>
+    <hyperlink ref="G46" r:id="rId23" xr:uid="{4B923539-D457-704D-9ECA-D0F3BEAE6AE2}"/>
     <hyperlink ref="G9" r:id="rId24" xr:uid="{7D5E435A-72DB-234A-A700-57D7FD7C5847}"/>
     <hyperlink ref="G10" r:id="rId25" xr:uid="{C9D2E3E5-1140-AA43-9CE0-6894817238EE}"/>
     <hyperlink ref="G17" r:id="rId26" xr:uid="{CEF9696E-76E8-8D46-B734-94013C579713}"/>
+    <hyperlink ref="G36" r:id="rId27" xr:uid="{0AEC6D30-82CB-DF45-B247-5EB4FDF11223}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16FCFBA-ACE5-8740-AEBD-06B0A765A59E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA22430F-0ADD-8540-B124-CFAB3B9CEFD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8420" yWindow="1460" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1986,10 +1986,10 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2548,25 +2548,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
+        <v>293</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
@@ -2574,25 +2574,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
         <v>138</v>
@@ -2600,25 +2600,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
         <v>138</v>
@@ -2626,25 +2626,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
         <v>138</v>
@@ -2652,25 +2652,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H26" t="s">
         <v>138</v>
@@ -2678,25 +2678,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H27" t="s">
         <v>138</v>
@@ -2704,25 +2704,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
         <v>138</v>
@@ -2730,25 +2730,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
         <v>138</v>
@@ -2756,25 +2756,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
         <v>138</v>
@@ -2782,25 +2782,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H31" t="s">
         <v>138</v>
@@ -2808,25 +2808,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H32" t="s">
         <v>138</v>
@@ -2834,25 +2834,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H33" t="s">
         <v>138</v>
@@ -2860,25 +2860,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H34" t="s">
         <v>138</v>
@@ -2886,25 +2886,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H35" t="s">
         <v>138</v>
@@ -2912,25 +2912,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>294</v>
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="H36" t="s">
         <v>138</v>
@@ -3161,20 +3161,20 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G21" r:id="rId1" xr:uid="{2FAE7874-4DCD-0E4C-8650-30542C791110}"/>
-    <hyperlink ref="G22" r:id="rId2" xr:uid="{3EA3B75E-44C6-9F49-B840-98E6C3472D4D}"/>
-    <hyperlink ref="G23" r:id="rId3" xr:uid="{412DF0E2-0A38-F54B-A3F3-380A588AAD7D}"/>
-    <hyperlink ref="G24" r:id="rId4" xr:uid="{F52A8531-3B92-7E44-9925-CA8A4CB3BE71}"/>
-    <hyperlink ref="G25" r:id="rId5" xr:uid="{6533AFCC-6740-1B4F-A48B-108A0D5A4357}"/>
-    <hyperlink ref="G26" r:id="rId6" xr:uid="{B3C15CF7-63A8-8843-A5AB-1F02D9C470FC}"/>
-    <hyperlink ref="G27" r:id="rId7" xr:uid="{029A5B35-3CB3-394C-B703-97A4C98E4688}"/>
-    <hyperlink ref="G28" r:id="rId8" xr:uid="{8A33CE13-8235-0145-B9C8-9F53E31B8B8F}"/>
-    <hyperlink ref="G29" r:id="rId9" xr:uid="{76444750-0177-0141-AA85-9D728BAD8A34}"/>
-    <hyperlink ref="G30" r:id="rId10" xr:uid="{8A025C20-173E-564D-A237-597126DF1F1B}"/>
-    <hyperlink ref="G31" r:id="rId11" xr:uid="{612DF3E6-5B39-234E-9D67-72C0586EF110}"/>
-    <hyperlink ref="G32" r:id="rId12" xr:uid="{95D4CD54-A3BA-E140-B7B8-7262A1664F94}"/>
-    <hyperlink ref="G33" r:id="rId13" xr:uid="{1256F3EF-10EA-624D-9455-5B9481239CCF}"/>
-    <hyperlink ref="G34" r:id="rId14" xr:uid="{EF155354-A9EC-2347-BD27-5496F93A7866}"/>
-    <hyperlink ref="G35" r:id="rId15" xr:uid="{3DBA1F2A-F4AC-7D47-9004-BD10C937C173}"/>
+    <hyperlink ref="G23" r:id="rId2" xr:uid="{3EA3B75E-44C6-9F49-B840-98E6C3472D4D}"/>
+    <hyperlink ref="G24" r:id="rId3" xr:uid="{412DF0E2-0A38-F54B-A3F3-380A588AAD7D}"/>
+    <hyperlink ref="G25" r:id="rId4" xr:uid="{F52A8531-3B92-7E44-9925-CA8A4CB3BE71}"/>
+    <hyperlink ref="G26" r:id="rId5" xr:uid="{6533AFCC-6740-1B4F-A48B-108A0D5A4357}"/>
+    <hyperlink ref="G27" r:id="rId6" xr:uid="{B3C15CF7-63A8-8843-A5AB-1F02D9C470FC}"/>
+    <hyperlink ref="G28" r:id="rId7" xr:uid="{029A5B35-3CB3-394C-B703-97A4C98E4688}"/>
+    <hyperlink ref="G29" r:id="rId8" xr:uid="{8A33CE13-8235-0145-B9C8-9F53E31B8B8F}"/>
+    <hyperlink ref="G30" r:id="rId9" xr:uid="{76444750-0177-0141-AA85-9D728BAD8A34}"/>
+    <hyperlink ref="G31" r:id="rId10" xr:uid="{8A025C20-173E-564D-A237-597126DF1F1B}"/>
+    <hyperlink ref="G32" r:id="rId11" xr:uid="{612DF3E6-5B39-234E-9D67-72C0586EF110}"/>
+    <hyperlink ref="G33" r:id="rId12" xr:uid="{95D4CD54-A3BA-E140-B7B8-7262A1664F94}"/>
+    <hyperlink ref="G34" r:id="rId13" xr:uid="{1256F3EF-10EA-624D-9455-5B9481239CCF}"/>
+    <hyperlink ref="G35" r:id="rId14" xr:uid="{EF155354-A9EC-2347-BD27-5496F93A7866}"/>
+    <hyperlink ref="G36" r:id="rId15" xr:uid="{3DBA1F2A-F4AC-7D47-9004-BD10C937C173}"/>
     <hyperlink ref="G38" r:id="rId16" xr:uid="{E611234F-AE20-C648-9E8A-2A01502FA5A2}"/>
     <hyperlink ref="G37" r:id="rId17" xr:uid="{404CC6F9-59A5-7949-9F34-AFB2DB4A4370}"/>
     <hyperlink ref="G39" r:id="rId18" xr:uid="{9321B23E-F57E-0848-A143-C2B37755A8EF}"/>
@@ -3186,7 +3186,7 @@
     <hyperlink ref="G9" r:id="rId24" xr:uid="{7D5E435A-72DB-234A-A700-57D7FD7C5847}"/>
     <hyperlink ref="G10" r:id="rId25" xr:uid="{C9D2E3E5-1140-AA43-9CE0-6894817238EE}"/>
     <hyperlink ref="G17" r:id="rId26" xr:uid="{CEF9696E-76E8-8D46-B734-94013C579713}"/>
-    <hyperlink ref="G36" r:id="rId27" xr:uid="{0AEC6D30-82CB-DF45-B247-5EB4FDF11223}"/>
+    <hyperlink ref="G22" r:id="rId27" xr:uid="{0AEC6D30-82CB-DF45-B247-5EB4FDF11223}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-54-Life.xlsx
+++ b/db/AiCity-54-Life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA22430F-0ADD-8540-B124-CFAB3B9CEFD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEC22FE-2822-9641-9F35-F7866D0AECD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="1460" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14700" yWindow="10140" windowWidth="41600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="306">
   <si>
     <t>title</t>
   </si>
@@ -1275,10 +1275,6 @@
   </si>
   <si>
     <t>電話：03-328-0888</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話：02-2601-1014</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1599,6 +1595,134 @@
   </si>
   <si>
     <t>fig/AiCity-918-兆豐銀行.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>電話：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>02-2601-1014</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間：週二,三：14:30 - 19:30, 週四,五：11:30 - 19:30, 週六：10:30 - 18:30, 週日，週一公休</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>特達舒運動教室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地址：桃園市龜山區長慶三街46號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>電話：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0954-075-058</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>營業時間：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>09:00 - 22:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-918-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>達特舒.jpg</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Dr.SungSport/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1606,7 +1730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1652,6 +1776,26 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1674,12 +1818,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1983,13 +2128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2193,7 +2338,7 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -2213,25 +2358,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -2239,25 +2384,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" t="s">
         <v>275</v>
       </c>
-      <c r="D10" t="s">
-        <v>276</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -2418,25 +2563,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" t="s">
         <v>284</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>285</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="H17" t="s">
         <v>75</v>
@@ -2447,7 +2592,7 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -2459,7 +2604,7 @@
         <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
@@ -2485,7 +2630,7 @@
         <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G19" t="s">
         <v>79</v>
@@ -2551,22 +2696,22 @@
         <v>212</v>
       </c>
       <c r="B22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" t="s">
         <v>294</v>
-      </c>
-      <c r="D22" t="s">
-        <v>295</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
@@ -2950,7 +3095,7 @@
         <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>227</v>
@@ -2969,11 +3114,11 @@
       <c r="C38" t="s">
         <v>225</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" t="s">
         <v>229</v>
-      </c>
-      <c r="F38" t="s">
-        <v>230</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>226</v>
@@ -2987,19 +3132,19 @@
         <v>215</v>
       </c>
       <c r="B39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" t="s">
         <v>231</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D39" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" t="s">
-        <v>235</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="H39" t="s">
         <v>137</v>
@@ -3010,19 +3155,19 @@
         <v>216</v>
       </c>
       <c r="B40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" t="s">
         <v>237</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>239</v>
       </c>
-      <c r="D40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F40" t="s">
-        <v>240</v>
-      </c>
       <c r="G40" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H40" t="s">
         <v>137</v>
@@ -3033,19 +3178,19 @@
         <v>217</v>
       </c>
       <c r="B41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" t="s">
         <v>241</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F41" t="s">
-        <v>245</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="H41" t="s">
         <v>137</v>
@@ -3056,19 +3201,19 @@
         <v>218</v>
       </c>
       <c r="B42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" t="s">
-        <v>249</v>
-      </c>
-      <c r="F42" t="s">
-        <v>250</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="H42" t="s">
         <v>137</v>
@@ -3079,19 +3224,19 @@
         <v>219</v>
       </c>
       <c r="B43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" t="s">
         <v>251</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>252</v>
       </c>
-      <c r="D43" t="s">
-        <v>253</v>
-      </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H43" t="s">
         <v>137</v>
@@ -3102,16 +3247,16 @@
         <v>220</v>
       </c>
       <c r="B44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" t="s">
         <v>254</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>255</v>
       </c>
-      <c r="D44" t="s">
-        <v>256</v>
-      </c>
       <c r="F44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H44" t="s">
         <v>137</v>
@@ -3122,13 +3267,13 @@
         <v>221</v>
       </c>
       <c r="B45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" t="s">
         <v>260</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>261</v>
-      </c>
-      <c r="D45" t="s">
-        <v>262</v>
       </c>
       <c r="H45" t="s">
         <v>137</v>
@@ -3136,24 +3281,53 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" t="s">
         <v>263</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>264</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F46" t="s">
-        <v>267</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="H46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3187,6 +3361,7 @@
     <hyperlink ref="G10" r:id="rId25" xr:uid="{C9D2E3E5-1140-AA43-9CE0-6894817238EE}"/>
     <hyperlink ref="G17" r:id="rId26" xr:uid="{CEF9696E-76E8-8D46-B734-94013C579713}"/>
     <hyperlink ref="G22" r:id="rId27" xr:uid="{0AEC6D30-82CB-DF45-B247-5EB4FDF11223}"/>
+    <hyperlink ref="G47" r:id="rId28" xr:uid="{2B3E04BD-B7CE-0A47-8D79-2DC25FE4B300}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
